--- a/data/trans_camb/P1435-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1435-Clase-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.211538588180472</v>
+        <v>-6.443601317572786</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.496775525604065</v>
+        <v>-7.12537431947166</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.193638038117359</v>
+        <v>-2.485910041763756</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.178571334215627</v>
+        <v>0.874802426124896</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.4421683053709841</v>
+        <v>-0.1239422609634261</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.20977582042251</v>
+        <v>5.262258749336211</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7060239962328199</v>
+        <v>-0.7337722442653452</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7612641032897525</v>
+        <v>-0.7710209028984137</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.250641721383892</v>
+        <v>-0.2725383487123844</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2352574290445417</v>
+        <v>0.1504277752375406</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.01528903282274072</v>
+        <v>0.04207036924895717</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9484008343705553</v>
+        <v>1.041825749933173</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>-9.847205802819229</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.79305687001797</v>
+        <v>-5.793056870017968</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.95943724240914</v>
+        <v>-12.87775286470194</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.00820478654387</v>
+        <v>-14.05223048490582</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.49289718767469</v>
+        <v>-10.41900332048399</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.481004522960073</v>
+        <v>-4.226261192218301</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.177067607822366</v>
+        <v>-5.822168593514113</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.609831062217065</v>
+        <v>-1.742632024561541</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>-0.7269123566373608</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.4276385307508658</v>
+        <v>-0.4276385307508657</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8061796945882077</v>
+        <v>-0.789592399947431</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8547965135095611</v>
+        <v>-0.8545376422823309</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6240933216647691</v>
+        <v>-0.6367183769651823</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.38799359996619</v>
+        <v>-0.3723726212915159</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.5344993082505798</v>
+        <v>-0.5020085989127304</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1249130831444083</v>
+        <v>-0.1312801088013231</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.18696965387111</v>
+        <v>-11.77959473473108</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.01932200364647</v>
+        <v>-13.48441294483221</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.80067814882317</v>
+        <v>-11.04598226168582</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.94189309357803</v>
+        <v>-1.104207562329414</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.242886337688442</v>
+        <v>-2.538469095473403</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4536847085963294</v>
+        <v>0.4172724715718902</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8594118651244873</v>
+        <v>-0.8650083427887831</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.9448642300353407</v>
+        <v>-0.9446739059537647</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7786267748622878</v>
+        <v>-0.8083961878652018</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.06973177297984552</v>
+        <v>-0.001773837828733729</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2362283140292946</v>
+        <v>-0.1305596129838891</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2129324236273292</v>
+        <v>0.1420895009458162</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>-8.517540174984509</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.835314519230313</v>
+        <v>-1.835314519230312</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.644252015668525</v>
+        <v>-7.429719493536845</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.90819460295442</v>
+        <v>-10.82121063975057</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.83963337870262</v>
+        <v>-4.493566599488221</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-2.110947468202308</v>
+        <v>-2.233412523985784</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-6.361289917305784</v>
+        <v>-6.283897024346029</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9956780575556587</v>
+        <v>0.6659814441467438</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>-0.8809997144003473</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1898331600507722</v>
+        <v>-0.1898331600507721</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6730462813260878</v>
+        <v>-0.6514776669800924</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9405751733426909</v>
+        <v>-0.9386505777052304</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4034762109304225</v>
+        <v>-0.4030371328071837</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2523690339847509</v>
+        <v>-0.2610741366216158</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.781541198801006</v>
+        <v>-0.7726146691621584</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1363365525826447</v>
+        <v>0.09271156457423485</v>
       </c>
     </row>
     <row r="28">
@@ -1014,7 +1014,7 @@
         <v>-2.730587710194375</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.2429186852994862</v>
+        <v>0.2429186852994876</v>
       </c>
     </row>
     <row r="29">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.474021060192646</v>
+        <v>-4.451548797499914</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.966784132344698</v>
+        <v>-5.233840383430422</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.455464397278653</v>
+        <v>-2.278718131485621</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.07669462392761398</v>
+        <v>0.07961583026638913</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.6593967326330329</v>
+        <v>-0.679089310966523</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.227405973431778</v>
+        <v>2.589380500121105</v>
       </c>
     </row>
     <row r="31">
@@ -1065,7 +1065,7 @@
         <v>-0.5627020940947867</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.05005913283885802</v>
+        <v>0.05005913283885831</v>
       </c>
     </row>
     <row r="32">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6875293304387128</v>
+        <v>-0.6869087472012</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7791867847872396</v>
+        <v>-0.7884241787385903</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3683259375761544</v>
+        <v>-0.3412108663737636</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.03911735493366925</v>
+        <v>0.06639534868917411</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1406503647622717</v>
+        <v>-0.1968363002882307</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6581436590688172</v>
+        <v>0.7640892979020878</v>
       </c>
     </row>
     <row r="34">
@@ -1120,7 +1120,7 @@
         <v>-4.979551041121778</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-2.850933198370333</v>
+        <v>-2.850933198370334</v>
       </c>
     </row>
     <row r="35">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.190969876964434</v>
+        <v>-4.23113643954332</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-6.40833332673142</v>
+        <v>-6.592871151105435</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.764474640574752</v>
+        <v>-4.671817116520748</v>
       </c>
     </row>
     <row r="36">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.7879136997634403</v>
+        <v>-0.7307422356382054</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-3.543675663886334</v>
+        <v>-3.601265061148657</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.6658194181948552</v>
+        <v>-0.2890408790800584</v>
       </c>
     </row>
     <row r="37">
@@ -1171,7 +1171,7 @@
         <v>-0.823869919051023</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.4716887293582416</v>
+        <v>-0.4716887293582417</v>
       </c>
     </row>
     <row r="38">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.60103459689978</v>
+        <v>-0.6142145728977543</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.9090752574319733</v>
+        <v>-0.9152681057348722</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7038779705246879</v>
+        <v>-0.7199012367860972</v>
       </c>
     </row>
     <row r="39">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.1254655086593813</v>
+        <v>-0.1368766384905643</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.6602395527516941</v>
+        <v>-0.6712580403463916</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.1058853667666702</v>
+        <v>-0.05401816043075001</v>
       </c>
     </row>
     <row r="40">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.89814912073151</v>
+        <v>-4.948595188186681</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.767572672818055</v>
+        <v>-6.906564044718842</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.748517733211187</v>
+        <v>-2.865294622308788</v>
       </c>
     </row>
     <row r="42">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-2.602806388099002</v>
+        <v>-2.673251127667914</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-4.825347631674707</v>
+        <v>-4.85206680626203</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.4263217692753922</v>
+        <v>-0.3833461322073239</v>
       </c>
     </row>
     <row r="43">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5829161122540577</v>
+        <v>-0.5908241668040474</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.8128159251392304</v>
+        <v>-0.8132531131470767</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3329847435147216</v>
+        <v>-0.3394657030428025</v>
       </c>
     </row>
     <row r="45">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.3680858559019392</v>
+        <v>-0.3813626782282498</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.6790134226522858</v>
+        <v>-0.6837784137788308</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.06004183944114695</v>
+        <v>-0.04558798546595778</v>
       </c>
     </row>
     <row r="46">
